--- a/sample_data/Sample.xlsx
+++ b/sample_data/Sample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26102"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="67" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93E28106-AD86-4643-BAC4-BACF7D930919}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{491004D7-A3C2-4687-B69D-6DDC7BB7920B}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>RuneType</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>こめんと2</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G4"/>
+  <dimension ref="A2:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -509,6 +512,21 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:7">
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sample_data/Sample.xlsx
+++ b/sample_data/Sample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26102"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{491004D7-A3C2-4687-B69D-6DDC7BB7920B}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{008A36F8-EEE1-48F7-8243-B9AFD36F4A0C}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>RuneType</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -438,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G6"/>
+  <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -527,6 +533,14 @@
       </c>
       <c r="G6" s="2"/>
     </row>
+    <row r="8" spans="1:7">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sample_data/Sample.xlsx
+++ b/sample_data/Sample.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="82" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{008A36F8-EEE1-48F7-8243-B9AFD36F4A0C}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waless\Documents\home\projects\XlsToRune\sample_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78568C2A-8490-4D55-B921-6C790A858B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>RuneType</t>
   </si>
@@ -67,21 +72,25 @@
   </si>
   <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -132,7 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -148,7 +157,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -447,21 +456,21 @@
   <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -501,7 +510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -518,7 +527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -533,15 +542,14 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sample_data/Sample.xlsx
+++ b/sample_data/Sample.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26105"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waless\Documents\home\projects\XlsToRune\sample_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78568C2A-8490-4D55-B921-6C790A858B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B22A1F23-7CA3-4268-B1BB-106B553821D3}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>RuneType</t>
   </si>
@@ -47,7 +42,7 @@
     <t>name : string</t>
   </si>
   <si>
-    <t>number : int</t>
+    <t>#number : int</t>
   </si>
   <si>
     <t>position : float</t>
@@ -72,25 +67,21 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -141,7 +132,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -157,7 +148,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -456,21 +447,21 @@
   <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7">
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -510,7 +501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7">
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -527,7 +518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7">
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -542,14 +533,15 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7">
       <c r="C8" t="s">
         <v>12</v>
       </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sample_data/Sample.xlsx
+++ b/sample_data/Sample.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26105"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="83" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B22A1F23-7CA3-4268-B1BB-106B553821D3}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{273B945A-6588-4FF6-8DED-8FB7586CF319}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>RuneType</t>
   </si>
@@ -42,7 +43,7 @@
     <t>name : string</t>
   </si>
   <si>
-    <t>#number : int</t>
+    <t>number : int</t>
   </si>
   <si>
     <t>position : float</t>
@@ -70,6 +71,51 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>SampleType2 : type</t>
+  </si>
+  <si>
+    <t>Enum0</t>
+  </si>
+  <si>
+    <t>Name0</t>
+  </si>
+  <si>
+    <t>Enum1</t>
+  </si>
+  <si>
+    <t>Name1</t>
+  </si>
+  <si>
+    <t>Enum3</t>
+  </si>
+  <si>
+    <t>Name3</t>
+  </si>
+  <si>
+    <t>SampleType3 : type</t>
+  </si>
+  <si>
+    <t>Table0</t>
+  </si>
+  <si>
+    <t>Table1</t>
+  </si>
+  <si>
+    <t>SampleType4 : type</t>
+  </si>
+  <si>
+    <t>Table2_0</t>
+  </si>
+  <si>
+    <t>FooT</t>
+  </si>
+  <si>
+    <t>Table2_1</t>
+  </si>
+  <si>
+    <t>BarT</t>
   </si>
 </sst>
 </file>
@@ -126,10 +172,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G8"/>
+  <dimension ref="A2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -541,6 +588,137 @@
         <v>13</v>
       </c>
     </row>
+    <row r="10" spans="1:7" s="1" customFormat="1">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2EBF9F-DC08-4573-8A63-CA3EFD8CF4A3}">
+  <dimension ref="A2:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sample_data/Sample.xlsx
+++ b/sample_data/Sample.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26105"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="116" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{273B945A-6588-4FF6-8DED-8FB7586CF319}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waless\Documents\home\projects\XlsToRune\sample_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB4853B-D601-483B-B05A-ED95BEE0A2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -16,12 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>RuneType</t>
   </si>
@@ -68,9 +70,6 @@
   </si>
   <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
   <si>
     <t>SampleType2 : type</t>
@@ -122,12 +121,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -172,14 +178,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -195,7 +200,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -483,7 +488,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -493,22 +498,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -548,7 +553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -565,7 +570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -580,20 +585,20 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1">
+      <c r="E8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -602,57 +607,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2EBF9F-DC08-4573-8A63-CA3EFD8CF4A3}">
-  <dimension ref="A2:G8"/>
+  <dimension ref="A2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -661,34 +668,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1">
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -697,29 +698,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="C7" s="3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="C8" s="3" t="s">
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sample_data/Sample.xlsx
+++ b/sample_data/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waless\Documents\home\projects\XlsToRune\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB4853B-D601-483B-B05A-ED95BEE0A2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B9713C-A4E1-4CDD-9C49-67BC73601CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
   <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/sample_data/Sample.xlsx
+++ b/sample_data/Sample.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26124"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waless\Documents\home\projects\XlsToRune\sample_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B9713C-A4E1-4CDD-9C49-67BC73601CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BBA77FA-6995-49F7-B894-CA0F84394BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -21,9 +16,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -121,19 +119,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -184,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -200,7 +191,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -488,7 +479,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -499,21 +490,21 @@
   <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7">
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -553,7 +544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7">
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -570,7 +561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7">
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -578,22 +569,22 @@
         <v>11</v>
       </c>
       <c r="E6" s="2">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="F6" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7">
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="E8">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -615,7 +606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -623,7 +614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7">
       <c r="C13" t="s">
         <v>18</v>
       </c>
@@ -632,9 +623,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -643,18 +632,18 @@
   <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,7 +657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -676,7 +665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4">
       <c r="C4" t="s">
         <v>22</v>
       </c>
@@ -684,7 +673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,7 +687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4">
       <c r="C7" t="s">
         <v>24</v>
       </c>
@@ -706,7 +695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4">
       <c r="C8" t="s">
         <v>26</v>
       </c>
@@ -715,7 +704,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>